--- a/results/mp/tinybert/corona/confidence/42/topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/topk-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,96 +40,81 @@
     <t>name</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -139,7 +124,16 @@
     <t>care</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>please</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -505,10 +499,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -566,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,16 +581,16 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -616,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0.5753424657534246</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -634,19 +628,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -658,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -666,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7142857142857143</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="C5">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -684,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -708,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -716,13 +710,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2832618025751073</v>
+        <v>0.1782945736434109</v>
       </c>
       <c r="C6">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -734,119 +728,71 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>167</v>
+        <v>424</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L6">
+        <v>42</v>
+      </c>
+      <c r="M6">
+        <v>42</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L7">
+        <v>97</v>
+      </c>
+      <c r="M7">
+        <v>97</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K6">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L6">
-        <v>16</v>
-      </c>
-      <c r="M6">
-        <v>16</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>66</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7">
-        <v>0.875</v>
-      </c>
-      <c r="L7">
-        <v>14</v>
-      </c>
-      <c r="M7">
-        <v>14</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.1185185185185185</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>119</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K8">
-        <v>0.8627450980392157</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -858,21 +804,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -884,21 +830,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -915,16 +861,16 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.765625</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -936,21 +882,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.8235294117647058</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -962,21 +908,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.8148148148148148</v>
+        <v>0.725</v>
       </c>
       <c r="L13">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="M13">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -988,21 +934,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7843137254901961</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1014,21 +960,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7241379310344828</v>
+        <v>0.6875</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1040,47 +986,47 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6923076923076923</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L16">
+        <v>33</v>
+      </c>
+      <c r="M16">
+        <v>33</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>18</v>
-      </c>
-      <c r="M16">
-        <v>18</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1092,21 +1038,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6575342465753424</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L18">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1118,21 +1064,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6410256410256411</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1144,21 +1090,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.625</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1170,21 +1116,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1196,21 +1142,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5600000000000001</v>
+        <v>0.5195822454308094</v>
       </c>
       <c r="L22">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="M22">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1222,21 +1168,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5305164319248826</v>
+        <v>0.4529411764705882</v>
       </c>
       <c r="L23">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="M23">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1248,21 +1194,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>100</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>0.4305084745762712</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1274,21 +1220,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.3932584269662922</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1300,21 +1246,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4861111111111111</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L26">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1326,21 +1272,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4806201550387597</v>
+        <v>0.297071129707113</v>
       </c>
       <c r="L27">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="M27">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1352,59 +1298,59 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.4285714285714285</v>
+        <v>0.006008782066096603</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.391304347826087</v>
+        <v>0.005605605605605605</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>56</v>
+        <v>4967</v>
       </c>
     </row>
   </sheetData>
